--- a/gridnumbers.xlsx
+++ b/gridnumbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\PycharmProjects\PyDuko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3C288C-531C-4F4C-B28F-B843081E3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F7995-803F-4C92-B4A9-CE3E259CFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3784A08-1A1F-4282-9D9D-AE651BE3045A}"/>
+    <workbookView xWindow="5748" yWindow="1776" windowWidth="12372" windowHeight="8964" xr2:uid="{D3784A08-1A1F-4282-9D9D-AE651BE3045A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>61</v>
